--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNet\ExcelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E88CB54-2446-4565-B5E5-EB7C22C97267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F2EE3-7105-488D-9DF3-239A2E6624A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -46,6 +47,15 @@
   </si>
   <si>
     <t>hero@gmail.com</t>
+  </si>
+  <si>
+    <t>zero@gmail.com</t>
+  </si>
+  <si>
+    <t>kshitiz@example.com</t>
+  </si>
+  <si>
+    <t>yaho@gmail.com</t>
   </si>
   <si>
     <t>duplicate</t>
@@ -377,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +417,7 @@
         <v>12345</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,7 +436,7 @@
         <v>2323222</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,6 +445,33 @@
       </c>
       <c r="B5">
         <v>323322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>32333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>32233</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>12389</v>
       </c>
     </row>
   </sheetData>
@@ -443,7 +480,22 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{D90F0EC0-0B5C-4E45-ABFC-451DDAF3610F}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{90527D83-22CE-4712-AF1C-3B2A1082B33F}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{BDC05045-D76C-4ABD-B407-E54CBC8FE4A5}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{439D5DD9-F322-4831-9900-B3F383315753}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{D5B3CFF5-4619-4889-9B50-33BEBA0E2A85}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{68FDA346-D01E-45EB-A6FA-7F0977AE91AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B0EF1C-71DD-4D55-9616-395B371519B6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/abc.xlsx
+++ b/abc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNet\ExcelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9F2EE3-7105-488D-9DF3-239A2E6624A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7BC199-7A4D-4B67-A60D-B2F92E4163CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
